--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\报表\烧结\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" activeTab="5"/>
   </bookViews>
@@ -22,8 +17,9 @@
     <sheet name="_main2_day_4hour" sheetId="11" r:id="rId8"/>
     <sheet name="_main3_day_4hour" sheetId="13" r:id="rId9"/>
     <sheet name="_dictionary" sheetId="12" r:id="rId10"/>
+    <sheet name="_metadata" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -174,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +212,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -404,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,9 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -508,45 +507,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,7 +521,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -618,6 +592,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1410,327 +1409,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A2="","",_main1_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B2="","",_main1_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C2="","",_main1_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D2="","",_main1_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E2="","",_main1_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F2="","",_main1_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main2_day_4hour!C3="","",_main2_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main2_day_4hour!E3="","",_main2_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main2_day_4hour!F3="","",_main2_day_4hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G2="","",_main2_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H2="","",_main2_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I2="","",_main2_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -1752,367 +1753,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -2123,11 +2129,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -2139,8 +2140,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2168,12 +2169,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2194,327 +2208,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A6="","",_main1_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B6="","",_main1_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C6="","",_main1_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D6="","",_main1_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E6="","",_main1_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F6="","",_main1_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C7="","",_main1_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main1_day_4hour!E7="","",_main1_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main1_day_4hour!F7="","",_main1_day_4hour!F7)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G6="","",_main2_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H6="","",_main2_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I6="","",_main2_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -2536,367 +2552,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -2907,11 +2928,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -2931,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2953,327 +2969,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A10="","",_main1_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B10="","",_main1_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C10="","",_main1_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D10="","",_main1_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E10="","",_main1_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F10="","",_main1_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C11="","",_main1_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main1_day_4hour!E11="","",_main1_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main1_day_4hour!F11="","",_main1_day_4hour!F11)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G10="","",_main2_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H10="","",_main2_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I10="","",_main2_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -3295,367 +3313,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -3666,11 +3689,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -3691,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3713,327 +3731,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A14="","",_main1_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B14="","",_main1_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C14="","",_main1_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D14="","",_main1_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E14="","",_main1_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F14="","",_main1_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C15="","",_main1_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main1_day_4hour!E15="","",_main1_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main1_day_4hour!F15="","",_main1_day_4hour!F15)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G14="","",_main2_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H14="","",_main2_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I14="","",_main2_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -4055,367 +4075,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -4426,11 +4451,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -4450,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4472,327 +4492,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -4814,367 +4836,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -5185,11 +5212,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -5210,7 +5232,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F25"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5231,327 +5253,329 @@
   <sheetData>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>43357</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="60">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="32"/>
+      <c r="J3" s="60">
+        <f>_metadata!B14</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(_main1_day_4hour!A22="","",_main1_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="13" t="str">
         <f>IF(_main1_day_4hour!B22="","",_main1_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(_main1_day_4hour!C22="","",_main1_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f>IF(_main1_day_4hour!D22="","",_main1_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(_main1_day_4hour!E22="","",_main1_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f>IF(_main1_day_4hour!F22="","",_main1_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I6" s="14" t="str">
+      <c r="I6" s="13" t="str">
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="29" t="str">
+      <c r="J6" s="28" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="29" t="str">
+      <c r="K6" s="28" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f>IF(_main1_day_4hour!C23="","",_main1_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="14" t="str">
         <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(_main1_day_4hour!E23="","",_main1_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="15" t="str">
         <f>IF(_main1_day_4hour!F23="","",_main1_day_4hour!F23)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="15" t="str">
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" s="19" t="str">
         <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
         <v/>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="19" t="str">
         <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="19" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" s="19" t="str">
         <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G8" s="21" t="str">
+      <c r="G8" s="20" t="str">
         <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="21" t="str">
         <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="21" t="str">
         <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" s="19" t="str">
         <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="19" t="str">
         <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
     </row>
     <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="18" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="18" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
     </row>
     <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
     </row>
     <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
@@ -5573,367 +5597,372 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="24" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="24" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="24" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="24" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="26" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="18" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="38" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="49" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
@@ -5944,11 +5973,6 @@
     <mergeCell ref="G19:K25"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">

--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>五号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -169,8 +169,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,20 +215,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,7 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,12 +393,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -348,7 +678,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -359,9 +691,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -400,13 +730,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,8 +1003,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -480,6 +1061,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -504,15 +1093,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -521,29 +1101,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -553,10 +1119,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -569,6 +1131,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -581,68 +1146,105 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -664,7 +1266,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -672,7 +1274,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4000500" y="4314825"/>
-          <a:ext cx="1673999" cy="2231999"/>
+          <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,7 +1304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -710,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11915775" y="4314825"/>
-          <a:ext cx="1673999" cy="2231999"/>
+          <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,7 +1325,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -745,7 +1347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -783,7 +1385,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -804,7 +1406,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -826,7 +1428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -864,7 +1466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -885,7 +1487,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -907,7 +1509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -945,7 +1547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -966,7 +1568,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -988,7 +1590,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1026,7 +1628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1047,7 +1649,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1069,7 +1671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1107,7 +1709,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1379,19 +1981,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -1407,333 +2009,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="10">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <f>_metadata!B14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A2="","",_main1_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B2="","",_main1_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C2="","",_main1_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D2="","",_main1_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E2="","",_main1_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F2="","",_main1_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main2_day_4hour!C3="","",_main2_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main2_day_4hour!E3="","",_main2_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main2_day_4hour!F3="","",_main2_day_4hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G2="","",_main2_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H2="","",_main2_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I2="","",_main2_day_4hour!I2)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1753,361 +2355,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2130,7 +2732,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -2139,23 +2740,25 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2164,33 +2767,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -2206,333 +2813,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="10">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <f>_metadata!B14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A6="","",_main1_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B6="","",_main1_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C6="","",_main1_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D6="","",_main1_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E6="","",_main1_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F6="","",_main1_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main1_day_4hour!C7="","",_main1_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main1_day_4hour!E7="","",_main1_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main1_day_4hour!F7="","",_main1_day_4hour!F7)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G6="","",_main2_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H6="","",_main2_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I6="","",_main2_day_4hour!I6)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -2552,361 +3159,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2929,7 +3536,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -2938,20 +3544,22 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -2967,333 +3575,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="10">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <f>_metadata!B14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A10="","",_main1_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B10="","",_main1_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C10="","",_main1_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D10="","",_main1_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E10="","",_main1_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F10="","",_main1_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main1_day_4hour!C11="","",_main1_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main1_day_4hour!E11="","",_main1_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main1_day_4hour!F11="","",_main1_day_4hour!F11)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G10="","",_main2_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H10="","",_main2_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I10="","",_main2_day_4hour!I10)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -3313,361 +3921,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3690,7 +4298,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -3699,21 +4306,23 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -3729,333 +4338,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="10">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <f>_metadata!B14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A14="","",_main1_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B14="","",_main1_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C14="","",_main1_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D14="","",_main1_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E14="","",_main1_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F14="","",_main1_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main1_day_4hour!C15="","",_main1_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main1_day_4hour!E15="","",_main1_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main1_day_4hour!F15="","",_main1_day_4hour!F15)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G14="","",_main2_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H14="","",_main2_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I14="","",_main2_day_4hour!I14)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -4075,361 +4684,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4452,7 +5061,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -4461,20 +5069,22 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -4490,333 +5100,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="10">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="10">
         <f>_metadata!B14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -4836,361 +5446,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5213,7 +5823,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -5222,20 +5831,22 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
@@ -5251,333 +5862,333 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
       <c r="A2" s="7"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
-        <f>_metadata!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="30"/>
+      <c r="J3" s="10" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="16" t="str">
         <f>IF(_main1_day_4hour!A22="","",_main1_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="16" t="str">
         <f>IF(_main1_day_4hour!B22="","",_main1_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="16" t="str">
         <f>IF(_main1_day_4hour!C22="","",_main1_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(_main1_day_4hour!D22="","",_main1_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(_main1_day_4hour!E22="","",_main1_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="16" t="str">
         <f>IF(_main1_day_4hour!F22="","",_main1_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="16" t="str">
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="28" t="str">
+      <c r="J6" s="33" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="33" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A7" s="7"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="17" t="str">
         <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="17" t="str">
         <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="17" t="str">
         <f>IF(_main1_day_4hour!C23="","",_main1_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="17" t="str">
         <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_main1_day_4hour!E23="","",_main1_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="H7" s="18" t="str">
         <f>IF(_main1_day_4hour!F23="","",_main1_day_4hour!F23)</f>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
+      <c r="I7" s="18" t="str">
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="22" t="str">
         <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
         <v/>
       </c>
-      <c r="K7" s="19" t="str">
+      <c r="K7" s="22" t="str">
         <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="20" t="str">
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="21" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="23" t="str">
         <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="24" t="str">
         <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
         <v/>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I8" s="24" t="str">
         <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J8" s="19" t="str">
+      <c r="J8" s="22" t="str">
         <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="22" t="str">
         <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A9" s="7"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="22" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="22" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="21" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="22" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="19" t="str">
+      <c r="K9" s="22" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A10" s="7"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="7"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -5597,361 +6208,361 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="29" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="29" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="29" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="29" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="29" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="31" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="31" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="31" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="32" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="31" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-    </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="7"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="18" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="22" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-    </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-    </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="7"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
       <c r="A20" s="7"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
       <c r="A21" s="7"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
       <c r="A23" s="7"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
       <c r="A24" s="7"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
       <c r="A26" s="7"/>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="41" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
       <c r="A27" s="7"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="7"/>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5974,7 +6585,6 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="H26:K27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"夜班,白班,中班"</formula1>
@@ -5983,20 +6593,24 @@
       <formula1>"低,偏低,正常,偏高,高"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="86.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="86.25" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -6029,22 +6643,23 @@
   <protectedRanges>
     <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="86.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="86.25" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -6077,25 +6692,26 @@
   <protectedRanges>
     <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -6113,7 +6729,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
     <sheet name="7" sheetId="5" r:id="rId2"/>
-    <sheet name="11" sheetId="6" r:id="rId3"/>
-    <sheet name="15" sheetId="7" r:id="rId4"/>
-    <sheet name="19" sheetId="8" r:id="rId5"/>
-    <sheet name="23" sheetId="9" r:id="rId6"/>
-    <sheet name="_main1_day_4hour" sheetId="10" r:id="rId7"/>
-    <sheet name="_main2_day_4hour" sheetId="11" r:id="rId8"/>
-    <sheet name="_main3_day_4hour" sheetId="13" r:id="rId9"/>
-    <sheet name="_dictionary" sheetId="12" r:id="rId10"/>
-    <sheet name="_metadata" sheetId="14" r:id="rId11"/>
+    <sheet name="_main1_day_4hour" sheetId="10" state="hidden" r:id="rId3"/>
+    <sheet name="11" sheetId="6" r:id="rId4"/>
+    <sheet name="15" sheetId="7" r:id="rId5"/>
+    <sheet name="19" sheetId="8" r:id="rId6"/>
+    <sheet name="23" sheetId="9" r:id="rId7"/>
+    <sheet name="_main2_day_4hour" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="_main3_day_4hour" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="_dictionary" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="_metadata" sheetId="14" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>五号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -130,19 +130,19 @@
     <t>备注：每间隔4小时发布一次（3、7、11、15、19、23时）。发布在微信烧结-调度联络群，由调度转发厂信息平台。</t>
   </si>
   <si>
-    <t>ST5_L1R_SIN_DelAmtUse_1m_avg</t>
+    <t>ST5_L1R_OB_SetDelAmt_1m_avg</t>
   </si>
   <si>
-    <t>ST5_L1R_OB_CoReFineUseP_1m_avg</t>
+    <t>ST5_L1R_OB_ColdReturnFineUseP_1m_avg</t>
   </si>
   <si>
     <t>ST5_L1R_SIN_MI202_1m_avg</t>
   </si>
   <si>
-    <t>ST5_L1R_SIN_LI3031_1m_avg</t>
+    <t>ST5_L1R_SIN_LI303_1m_avg</t>
   </si>
   <si>
-    <t>ST5_L1R_SIN_PI367_1m_avg</t>
+    <t>ST5_L1R_SIN_PI357_1m_avg</t>
   </si>
   <si>
     <t>ST5_L1R_SIN_PI300A_1m_avg</t>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>ST5_L1R_SIN_BtpTeN_1m_avg</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_DelAmtUse_1m_avg</t>
+  </si>
+  <si>
+    <t>ST5_L1R_OB_CoReFineUseP_1m_avg</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_LI3031_1m_avg</t>
+  </si>
+  <si>
+    <t>ST5_L1R_SIN_PI367_1m_avg</t>
   </si>
   <si>
     <t>Mg/Al</t>
@@ -171,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -215,35 +227,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -252,49 +235,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,16 +274,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +334,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,90 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,7 +423,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,13 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,61 +743,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +763,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,9 +793,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,148 +845,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,8 +1174,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1989,8 +2001,8 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2033,9 +2045,9 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2049,9 +2061,9 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
+      <c r="J3" s="14" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="7"/>
@@ -2715,9 +2727,10 @@
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -2760,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -2794,7 +2807,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2837,9 +2850,9 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -2853,9 +2866,9 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
+      <c r="J3" s="14" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="7"/>
@@ -3519,9 +3532,10 @@
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -3553,10 +3567,62 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="69" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
+  </protectedRanges>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3599,9 +3665,9 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -3615,9 +3681,9 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
+      <c r="J3" s="14" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="7"/>
@@ -4281,9 +4347,10 @@
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -4313,13 +4380,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4362,9 +4429,9 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -4378,9 +4445,9 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
+      <c r="J3" s="14" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="7"/>
@@ -5044,771 +5111,10 @@
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B19:F25"/>
-    <mergeCell ref="G19:K25"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="H26:K27"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"夜班,白班,中班"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:K9 C15:G15">
-      <formula1>"低,偏低,正常,偏高,高"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:Z29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <f>_metadata!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="10">
-        <f>_metadata!B14</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16" t="str">
-        <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
-        <v/>
-      </c>
-      <c r="D6" s="16" t="str">
-        <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
-        <v/>
-      </c>
-      <c r="E6" s="16" t="str">
-        <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="str">
-        <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
-        <v/>
-      </c>
-      <c r="G6" s="16" t="str">
-        <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
-        <v/>
-      </c>
-      <c r="I6" s="16" t="str">
-        <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
-        <v/>
-      </c>
-      <c r="J6" s="33" t="str">
-        <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
-        <v/>
-      </c>
-      <c r="K6" s="33" t="str">
-        <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
-        <v/>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
-        <v/>
-      </c>
-      <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
-        <v/>
-      </c>
-      <c r="E7" s="17" t="str">
-        <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
-        <v/>
-      </c>
-      <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
-        <v/>
-      </c>
-      <c r="G7" s="18" t="str">
-        <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
-        <v/>
-      </c>
-      <c r="H7" s="18" t="str">
-        <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
-        <v/>
-      </c>
-      <c r="I7" s="18" t="str">
-        <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
-        <v/>
-      </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
-        <v/>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="20" t="str">
-        <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
-        <v/>
-      </c>
-      <c r="D8" s="21" t="str">
-        <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
-        <v/>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
-        <v/>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
-        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H8" s="24" t="str">
-        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
-        <v/>
-      </c>
-      <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
-        <v/>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="20" t="str">
-        <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
-        <v/>
-      </c>
-      <c r="D9" s="21" t="str">
-        <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
-        <v/>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
-        <v/>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
-        <v/>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
-        <v/>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
-        <v/>
-      </c>
-      <c r="I9" s="21" t="str">
-        <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
-        <v/>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
-        <v/>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
-        <v/>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="B10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="29" t="str">
-        <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
-        <v/>
-      </c>
-      <c r="D13" s="29" t="str">
-        <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
-        <v/>
-      </c>
-      <c r="E13" s="29" t="str">
-        <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
-        <v/>
-      </c>
-      <c r="F13" s="29" t="str">
-        <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
-        <v/>
-      </c>
-      <c r="G13" s="29" t="str">
-        <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
-        <v/>
-      </c>
-      <c r="D14" s="31" t="str">
-        <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
-        <v/>
-      </c>
-      <c r="E14" s="31" t="str">
-        <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
-        <v/>
-      </c>
-      <c r="F14" s="32" t="str">
-        <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
-        <v/>
-      </c>
-      <c r="G14" s="31" t="str">
-        <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
-        <v/>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="B15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="21" t="str">
-        <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
-        <v/>
-      </c>
-      <c r="D15" s="21" t="str">
-        <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
-        <v/>
-      </c>
-      <c r="E15" s="21" t="str">
-        <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
-        <v/>
-      </c>
-      <c r="F15" s="22" t="str">
-        <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
-        <v/>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A16" s="7"/>
-      <c r="B16" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
-      <c r="A18" s="7"/>
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" s="6" customFormat="1" spans="1:26">
-      <c r="A19" s="7"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:26">
-      <c r="A20" s="7"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:26">
-      <c r="A21" s="7"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:26">
-      <c r="A22" s="7"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-    </row>
-    <row r="23" s="6" customFormat="1" spans="1:26">
-      <c r="A23" s="7"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="1:26">
-      <c r="A24" s="7"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
-      <c r="A25" s="7"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-    </row>
-    <row r="26" s="6" customFormat="1" spans="1:26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="1:26">
-      <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
-      <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="25:26">
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
-  </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -5842,8 +5148,8 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5902,7 +5208,7 @@
       <c r="I3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="J3" s="14" t="str">
         <f>IF(_metadata!B14="","",_metadata!B14)</f>
         <v/>
       </c>
@@ -5970,39 +5276,39 @@
         <v>14</v>
       </c>
       <c r="C6" s="16" t="str">
-        <f>IF(_main1_day_4hour!A22="","",_main1_day_4hour!A22)</f>
+        <f>IF(_main1_day_4hour!A18="","",_main1_day_4hour!A18)</f>
         <v/>
       </c>
       <c r="D6" s="16" t="str">
-        <f>IF(_main1_day_4hour!B22="","",_main1_day_4hour!B22)</f>
+        <f>IF(_main1_day_4hour!B18="","",_main1_day_4hour!B18)</f>
         <v/>
       </c>
       <c r="E6" s="16" t="str">
-        <f>IF(_main1_day_4hour!C22="","",_main1_day_4hour!C22)</f>
+        <f>IF(_main1_day_4hour!C18="","",_main1_day_4hour!C18)</f>
         <v/>
       </c>
       <c r="F6" s="16" t="str">
-        <f>IF(_main1_day_4hour!D22="","",_main1_day_4hour!D22)</f>
+        <f>IF(_main1_day_4hour!D18="","",_main1_day_4hour!D18)</f>
         <v/>
       </c>
       <c r="G6" s="16" t="str">
-        <f>IF(_main1_day_4hour!E22="","",_main1_day_4hour!E22)</f>
+        <f>IF(_main1_day_4hour!E18="","",_main1_day_4hour!E18)</f>
         <v/>
       </c>
       <c r="H6" s="16" t="str">
-        <f>IF(_main1_day_4hour!F22="","",_main1_day_4hour!F22)</f>
+        <f>IF(_main1_day_4hour!F18="","",_main1_day_4hour!F18)</f>
         <v/>
       </c>
       <c r="I6" s="16" t="str">
-        <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
+        <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
       <c r="J6" s="33" t="str">
-        <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
+        <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
       <c r="K6" s="33" t="str">
-        <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
+        <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L6" s="7"/>
@@ -6016,39 +5322,39 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
+        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
+        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
       <c r="E7" s="17" t="str">
-        <f>IF(_main1_day_4hour!C23="","",_main1_day_4hour!C23)</f>
+        <f>IF(_main1_day_4hour!C19="","",_main1_day_4hour!C19)</f>
         <v/>
       </c>
       <c r="F7" s="17" t="str">
-        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
+        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
       <c r="G7" s="18" t="str">
-        <f>IF(_main1_day_4hour!E23="","",_main1_day_4hour!E23)</f>
+        <f>IF(_main1_day_4hour!E19="","",_main1_day_4hour!E19)</f>
         <v/>
       </c>
       <c r="H7" s="18" t="str">
-        <f>IF(_main1_day_4hour!F23="","",_main1_day_4hour!F23)</f>
+        <f>IF(_main1_day_4hour!F19="","",_main1_day_4hour!F19)</f>
         <v/>
       </c>
       <c r="I7" s="18" t="str">
-        <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
+        <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
       <c r="J7" s="22" t="str">
-        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
+        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
         <v/>
       </c>
       <c r="K7" s="22" t="str">
-        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
+        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="7"/>
@@ -6062,39 +5368,39 @@
         <v>16</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
+        <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
+        <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
+        <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
+        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
         <v/>
       </c>
       <c r="G8" s="23" t="str">
-        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
+        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
         <v/>
       </c>
       <c r="H8" s="24" t="str">
-        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
+        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
       <c r="I8" s="24" t="str">
-        <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
+        <f>IF(_main2_day_4hour!G18="","",_main2_day_4hour!G18)</f>
         <v/>
       </c>
       <c r="J8" s="22" t="str">
-        <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
+        <f>IF(_main2_day_4hour!H18="","",_main2_day_4hour!H18)</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
+        <f>IF(_main2_day_4hour!I18="","",_main2_day_4hour!I18)</f>
         <v/>
       </c>
       <c r="L8" s="7"/>
@@ -6108,39 +5414,39 @@
         <v>17</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
+        <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
+        <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
+        <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
+        <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
       <c r="G9" s="22" t="str">
-        <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
+        <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
       <c r="H9" s="21" t="str">
-        <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
+        <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
       <c r="I9" s="21" t="str">
-        <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
+        <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
       <c r="J9" s="22" t="str">
-        <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
+        <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
       <c r="K9" s="22" t="str">
-        <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
+        <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
       <c r="L9" s="7"/>
@@ -6223,23 +5529,23 @@
         <v>15</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
+        <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
       <c r="D13" s="29" t="str">
-        <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
+        <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
       <c r="E13" s="29" t="str">
-        <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
+        <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
       <c r="F13" s="29" t="str">
-        <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
+        <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
       <c r="G13" s="29" t="str">
-        <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
+        <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
       <c r="H13" s="30"/>
@@ -6257,23 +5563,23 @@
         <v>16</v>
       </c>
       <c r="C14" s="31" t="str">
-        <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
+        <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
       <c r="D14" s="31" t="str">
-        <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
+        <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
       <c r="E14" s="31" t="str">
-        <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
+        <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
       <c r="F14" s="32" t="str">
-        <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
+        <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
       <c r="G14" s="31" t="str">
-        <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
+        <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
       <c r="H14" s="30"/>
@@ -6291,23 +5597,23 @@
         <v>17</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
+        <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
+        <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
+        <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
+        <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
       <c r="G15" s="22" t="str">
-        <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
+        <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
       <c r="H15" s="28"/>
@@ -6568,9 +5874,10 @@
   <protectedRanges>
     <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C10:K10"/>
@@ -6602,49 +5909,763 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="22.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="23" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="86.25" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>42</v>
-      </c>
+    <row r="2" s="6" customFormat="1" ht="22.5" spans="1:26">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14" t="str">
+        <f>IF(_metadata!B14="","",_metadata!B14)</f>
+        <v/>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A4" s="7"/>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.5" spans="1:26">
+      <c r="A5" s="7"/>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>IF(_main1_day_4hour!A22="","",_main1_day_4hour!A22)</f>
+        <v/>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f>IF(_main1_day_4hour!B22="","",_main1_day_4hour!B22)</f>
+        <v/>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f>IF(_main1_day_4hour!C22="","",_main1_day_4hour!C22)</f>
+        <v/>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f>IF(_main1_day_4hour!D22="","",_main1_day_4hour!D22)</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f>IF(_main1_day_4hour!E22="","",_main1_day_4hour!E22)</f>
+        <v/>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f>IF(_main1_day_4hour!F22="","",_main1_day_4hour!F22)</f>
+        <v/>
+      </c>
+      <c r="I6" s="16" t="str">
+        <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
+        <v/>
+      </c>
+      <c r="J6" s="33" t="str">
+        <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
+        <v/>
+      </c>
+      <c r="K6" s="33" t="str">
+        <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
+        <v/>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A7" s="7"/>
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
+        <v/>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
+        <v/>
+      </c>
+      <c r="E7" s="17" t="str">
+        <f>IF(_main1_day_4hour!C23="","",_main1_day_4hour!C23)</f>
+        <v/>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
+        <v/>
+      </c>
+      <c r="G7" s="18" t="str">
+        <f>IF(_main1_day_4hour!E23="","",_main1_day_4hour!E23)</f>
+        <v/>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f>IF(_main1_day_4hour!F23="","",_main1_day_4hour!F23)</f>
+        <v/>
+      </c>
+      <c r="I7" s="18" t="str">
+        <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
+        <v/>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
+        <v/>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
+        <v/>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
+        <v/>
+      </c>
+      <c r="I8" s="24" t="str">
+        <f>IF(_main2_day_4hour!G22="","",_main2_day_4hour!G22)</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>IF(_main2_day_4hour!H22="","",_main2_day_4hour!H22)</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>IF(_main2_day_4hour!I22="","",_main2_day_4hour!I22)</f>
+        <v/>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A9" s="7"/>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
+        <v/>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
+        <v/>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
+        <v/>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
+        <v/>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
+        <v/>
+      </c>
+      <c r="H9" s="21" t="str">
+        <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
+        <v/>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
+        <v/>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
+        <v/>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A10" s="7"/>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="24" customHeight="1" spans="1:26">
+      <c r="A11" s="7"/>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29" t="str">
+        <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
+        <v/>
+      </c>
+      <c r="D13" s="29" t="str">
+        <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
+        <v/>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
+        <v/>
+      </c>
+      <c r="F13" s="29" t="str">
+        <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
+        <v/>
+      </c>
+      <c r="G13" s="29" t="str">
+        <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
+        <v/>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
+        <v/>
+      </c>
+      <c r="D14" s="31" t="str">
+        <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
+        <v/>
+      </c>
+      <c r="E14" s="31" t="str">
+        <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
+        <v/>
+      </c>
+      <c r="F14" s="32" t="str">
+        <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
+        <v/>
+      </c>
+      <c r="G14" s="31" t="str">
+        <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
+        <v/>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A15" s="7"/>
+      <c r="B15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
+        <v/>
+      </c>
+      <c r="D15" s="21" t="str">
+        <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
+        <v/>
+      </c>
+      <c r="E15" s="21" t="str">
+        <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
+        <v/>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
+        <v/>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
+        <v/>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A16" s="7"/>
+      <c r="B16" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
+      <c r="A17" s="7"/>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.25" spans="1:26">
+      <c r="A18" s="7"/>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:26">
+      <c r="A19" s="7"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:26">
+      <c r="A20" s="7"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:26">
+      <c r="A21" s="7"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:26">
+      <c r="A22" s="7"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:26">
+      <c r="A23" s="7"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:26">
+      <c r="A24" s="7"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
+      <c r="A25" s="7"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:26">
+      <c r="A27" s="7"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" spans="1:26">
+      <c r="A28" s="7"/>
+      <c r="B28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="25:26">
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
   </protectedRanges>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <mergeCells count="16">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B19:F25"/>
+    <mergeCell ref="G19:K25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="H26:K27"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"夜班,白班,中班"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:K9 C15:G15">
+      <formula1>"低,偏低,正常,偏高,高"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6661,19 +6682,19 @@
   <sheetData>
     <row r="1" ht="86.25" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>39</v>
@@ -6722,10 +6743,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -205,12 +205,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -222,61 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +237,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,23 +327,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,20 +367,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,144 +405,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,7 +417,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,25 +489,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,45 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -811,6 +772,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -829,6 +820,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -839,152 +839,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,141 +1048,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1999,7 +2002,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2055,14 +2058,14 @@
         <v>3</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="57" t="str">
-        <f>"03:00:00"</f>
-        <v>03:00:00</v>
-      </c>
-      <c r="K3" s="52"/>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
+      </c>
+      <c r="K3" s="58"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="Y3" s="55"/>
@@ -2110,11 +2113,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -2153,11 +2156,11 @@
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
@@ -2172,11 +2175,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
+        <f>IF(_main1_day_4hour!A3="","",INT(LEFT(_main1_day_4hour!A3,FIND("～",_main1_day_4hour!A3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A3,LEN(_main1_day_4hour!A3)-FIND("～",_main1_day_4hour!A3))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
+        <f>IF(_main1_day_4hour!B3="","",INT(LEFT(_main1_day_4hour!B3,FIND("～",_main1_day_4hour!B3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B3,LEN(_main1_day_4hour!B3)-FIND("～",_main1_day_4hour!B3))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -2184,7 +2187,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
+        <f>IF(_main1_day_4hour!D3="","",INT(LEFT(_main1_day_4hour!D3,FIND("～",_main1_day_4hour!D3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D3,LEN(_main1_day_4hour!D3)-FIND("～",_main1_day_4hour!D3))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -2199,12 +2202,12 @@
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H3="","",INT(LEFT(_main1_day_4hour!H3,FIND("～",_main1_day_4hour!H3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H3,LEN(_main1_day_4hour!H3)-FIND("～",_main1_day_4hour!H3))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I3="","",INT(LEFT(_main1_day_4hour!I3,FIND("～",_main1_day_4hour!I3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I3,LEN(_main1_day_4hour!I3)-FIND("～",_main1_day_4hour!I3))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -2221,36 +2224,36 @@
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A2="","",_main2_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D4="","",INT(_main1_day_4hour!D4))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B2="","",_main2_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D2="","",_main2_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E2="","",INT(LEFT(_main2_day_4hour!E2,FIND("～",_main2_day_4hour!E2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E2,LEN(_main2_day_4hour!E2)-FIND("～",_main2_day_4hour!E2))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F2="","",INT(LEFT(_main2_day_4hour!F2,FIND("～",_main2_day_4hour!F2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F2,LEN(_main2_day_4hour!F2)-FIND("～",_main2_day_4hour!F2))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -2263,39 +2266,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
@@ -2309,15 +2312,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -2327,18 +2330,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -2364,10 +2367,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -2378,30 +2381,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -2412,30 +2415,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -2443,33 +2446,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -2477,14 +2480,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -2520,17 +2523,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -2538,16 +2541,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -2555,16 +2558,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -2572,16 +2575,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -2589,16 +2592,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -2606,16 +2609,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -2623,16 +2626,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -2640,16 +2643,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -2657,24 +2660,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -2682,16 +2685,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -2699,18 +2702,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -2804,7 +2807,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2860,12 +2863,12 @@
         <v>3</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>"07:00:00"</f>
-        <v>07:00:00</v>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -2915,11 +2918,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -2958,11 +2961,11 @@
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
@@ -2977,11 +2980,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
+        <f>IF(_main1_day_4hour!A7="","",INT(LEFT(_main1_day_4hour!A7,FIND("～",_main1_day_4hour!A7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A7,LEN(_main1_day_4hour!A7)-FIND("～",_main1_day_4hour!A7))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
+        <f>IF(_main1_day_4hour!B7="","",INT(LEFT(_main1_day_4hour!B7,FIND("～",_main1_day_4hour!B7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B7,LEN(_main1_day_4hour!B7)-FIND("～",_main1_day_4hour!B7))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -2989,7 +2992,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
+        <f>IF(_main1_day_4hour!D7="","",INT(LEFT(_main1_day_4hour!D7,FIND("～",_main1_day_4hour!D7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D7,LEN(_main1_day_4hour!D7)-FIND("～",_main1_day_4hour!D7))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -3004,12 +3007,12 @@
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H7="","",INT(LEFT(_main1_day_4hour!H7,FIND("～",_main1_day_4hour!H7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H7,LEN(_main1_day_4hour!H7)-FIND("～",_main1_day_4hour!H7))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I7="","",INT(LEFT(_main1_day_4hour!I7,FIND("～",_main1_day_4hour!I7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I7,LEN(_main1_day_4hour!I7)-FIND("～",_main1_day_4hour!I7))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -3026,36 +3029,36 @@
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A6="","",_main2_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D8="","",INT(_main1_day_4hour!D8))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B6="","",_main2_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D6="","",_main2_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E6="","",INT(LEFT(_main2_day_4hour!E6,FIND("～",_main2_day_4hour!E6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E6,LEN(_main2_day_4hour!E6)-FIND("～",_main2_day_4hour!E6))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F6="","",INT(LEFT(_main2_day_4hour!F6,FIND("～",_main2_day_4hour!F6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F6,LEN(_main2_day_4hour!F6)-FIND("～",_main2_day_4hour!F6))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -3068,39 +3071,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
@@ -3114,15 +3117,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -3132,18 +3135,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -3169,10 +3172,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -3183,30 +3186,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -3217,30 +3220,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -3248,33 +3251,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -3282,14 +3285,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3325,17 +3328,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -3343,16 +3346,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -3360,16 +3363,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -3377,16 +3380,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -3394,16 +3397,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -3411,16 +3414,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -3428,16 +3431,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -3445,16 +3448,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -3462,24 +3465,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -3487,16 +3490,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -3504,18 +3507,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -3576,16 +3579,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="69" spans="1:9">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3619,7 +3622,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3675,12 +3678,12 @@
         <v>43</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>"11:00:00"</f>
-        <v>11:00:00</v>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -3730,11 +3733,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -3773,11 +3776,11 @@
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
@@ -3792,11 +3795,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
+        <f>IF(_main1_day_4hour!A11="","",INT(LEFT(_main1_day_4hour!A11,FIND("～",_main1_day_4hour!A11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A11,LEN(_main1_day_4hour!A11)-FIND("～",_main1_day_4hour!A11))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
+        <f>IF(_main1_day_4hour!B11="","",INT(LEFT(_main1_day_4hour!B11,FIND("～",_main1_day_4hour!B11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B11,LEN(_main1_day_4hour!B11)-FIND("～",_main1_day_4hour!B11))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -3804,7 +3807,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
+        <f>IF(_main1_day_4hour!D11="","",INT(LEFT(_main1_day_4hour!D11,FIND("～",_main1_day_4hour!D11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D11,LEN(_main1_day_4hour!D11)-FIND("～",_main1_day_4hour!D11))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -3819,12 +3822,12 @@
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H11="","",INT(LEFT(_main1_day_4hour!H11,FIND("～",_main1_day_4hour!H11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H11,LEN(_main1_day_4hour!H11)-FIND("～",_main1_day_4hour!H11))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I11="","",INT(LEFT(_main1_day_4hour!I11,FIND("～",_main1_day_4hour!I11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I11,LEN(_main1_day_4hour!I11)-FIND("～",_main1_day_4hour!I11))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -3841,36 +3844,36 @@
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A10="","",_main2_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D12="","",INT(_main1_day_4hour!D12))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B10="","",_main2_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D10="","",_main2_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E10="","",INT(LEFT(_main2_day_4hour!E10,FIND("～",_main2_day_4hour!E10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E10,LEN(_main2_day_4hour!E10)-FIND("～",_main2_day_4hour!E10))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F10="","",INT(LEFT(_main2_day_4hour!F10,FIND("～",_main2_day_4hour!F10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F10,LEN(_main2_day_4hour!F10)-FIND("～",_main2_day_4hour!F10))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -3883,39 +3886,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="56" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
@@ -3929,15 +3932,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -3947,18 +3950,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -3984,10 +3987,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -3998,30 +4001,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -4032,30 +4035,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -4063,33 +4066,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -4097,14 +4100,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4140,17 +4143,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -4158,16 +4161,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -4175,16 +4178,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -4192,16 +4195,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -4209,16 +4212,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -4226,16 +4229,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -4243,16 +4246,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -4260,16 +4263,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -4277,24 +4280,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -4302,16 +4305,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -4319,18 +4322,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -4439,12 +4442,12 @@
         <v>43</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>"15:00:00"</f>
-        <v>15:00:00</v>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -4494,11 +4497,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -4537,11 +4540,11 @@
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
@@ -4556,11 +4559,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
+        <f>IF(_main1_day_4hour!A15="","",INT(LEFT(_main1_day_4hour!A15,FIND("～",_main1_day_4hour!A15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A15,LEN(_main1_day_4hour!A15)-FIND("～",_main1_day_4hour!A15))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
+        <f>IF(_main1_day_4hour!B15="","",INT(LEFT(_main1_day_4hour!B15,FIND("～",_main1_day_4hour!B15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B15,LEN(_main1_day_4hour!B15)-FIND("～",_main1_day_4hour!B15))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -4568,7 +4571,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
+        <f>IF(_main1_day_4hour!D15="","",INT(LEFT(_main1_day_4hour!D15,FIND("～",_main1_day_4hour!D15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D15,LEN(_main1_day_4hour!D15)-FIND("～",_main1_day_4hour!D15))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -4583,12 +4586,12 @@
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H15="","",INT(LEFT(_main1_day_4hour!H15,FIND("～",_main1_day_4hour!H15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H15,LEN(_main1_day_4hour!H15)-FIND("～",_main1_day_4hour!H15))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I15="","",INT(LEFT(_main1_day_4hour!I15,FIND("～",_main1_day_4hour!I15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I15,LEN(_main1_day_4hour!I15)-FIND("～",_main1_day_4hour!I15))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -4605,36 +4608,36 @@
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A14="","",_main2_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D16="","",INT(_main1_day_4hour!D16))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B14="","",_main2_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D14="","",_main2_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E14="","",INT(LEFT(_main2_day_4hour!E14,FIND("～",_main2_day_4hour!E14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E14,LEN(_main2_day_4hour!E14)-FIND("～",_main2_day_4hour!E14))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F14="","",INT(LEFT(_main2_day_4hour!F14,FIND("～",_main2_day_4hour!F14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F14,LEN(_main2_day_4hour!F14)-FIND("～",_main2_day_4hour!F14))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -4647,39 +4650,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
@@ -4693,15 +4696,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -4711,18 +4714,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -4748,10 +4751,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -4762,30 +4765,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -4796,30 +4799,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -4827,33 +4830,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -4861,14 +4864,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4904,17 +4907,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -4922,16 +4925,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -4939,16 +4942,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -4956,16 +4959,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -4973,16 +4976,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -4990,16 +4993,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -5007,16 +5010,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -5024,16 +5027,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -5041,24 +5044,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -5066,16 +5069,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -5083,18 +5086,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -5146,7 +5149,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5202,12 +5205,12 @@
         <v>44</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>"19:00:00"</f>
-        <v>19:00:00</v>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -5257,11 +5260,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -5300,11 +5303,11 @@
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
@@ -5319,11 +5322,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
+        <f>IF(_main1_day_4hour!A19="","",INT(LEFT(_main1_day_4hour!A19,FIND("～",_main1_day_4hour!A19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A19,LEN(_main1_day_4hour!A19)-FIND("～",_main1_day_4hour!A19))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
+        <f>IF(_main1_day_4hour!B19="","",INT(LEFT(_main1_day_4hour!B19,FIND("～",_main1_day_4hour!B19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B19,LEN(_main1_day_4hour!B19)-FIND("～",_main1_day_4hour!B19))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -5331,7 +5334,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
+        <f>IF(_main1_day_4hour!D19="","",INT(LEFT(_main1_day_4hour!D19,FIND("～",_main1_day_4hour!D19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D19,LEN(_main1_day_4hour!D19)-FIND("～",_main1_day_4hour!D19))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -5346,12 +5349,12 @@
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H19="","",INT(LEFT(_main1_day_4hour!H19,FIND("～",_main1_day_4hour!H19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H19,LEN(_main1_day_4hour!H19)-FIND("～",_main1_day_4hour!H19))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I19="","",INT(LEFT(_main1_day_4hour!I19,FIND("～",_main1_day_4hour!I19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I19,LEN(_main1_day_4hour!I19)-FIND("～",_main1_day_4hour!I19))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -5368,36 +5371,36 @@
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A18="","",_main2_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D20="","",INT(_main1_day_4hour!D20))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B18="","",_main2_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D18="","",_main2_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E18="","",INT(LEFT(_main2_day_4hour!E18,FIND("～",_main2_day_4hour!E18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E18,LEN(_main2_day_4hour!E18)-FIND("～",_main2_day_4hour!E18))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F18="","",INT(LEFT(_main2_day_4hour!F18,FIND("～",_main2_day_4hour!F18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F18,LEN(_main2_day_4hour!F18)-FIND("～",_main2_day_4hour!F18))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -5410,39 +5413,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
@@ -5456,15 +5459,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -5474,18 +5477,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -5511,10 +5514,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -5525,30 +5528,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -5559,30 +5562,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -5590,33 +5593,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -5624,14 +5627,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -5667,17 +5670,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -5685,16 +5688,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -5702,16 +5705,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -5719,16 +5722,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -5736,16 +5739,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -5753,16 +5756,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -5770,16 +5773,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -5787,16 +5790,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -5804,24 +5807,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -5829,16 +5832,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -5846,18 +5849,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -5909,7 +5912,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5965,12 +5968,12 @@
         <v>44</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f>"23:00:00"</f>
-        <v>23:00:00</v>
+      <c r="J3" s="51" t="str">
+        <f>IF(_metadata!B1="","",_metadata!B1)</f>
+        <v/>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -6020,11 +6023,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -6063,11 +6066,11 @@
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="31" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="31" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
@@ -6082,11 +6085,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
+        <f>IF(_main1_day_4hour!A23="","",INT(LEFT(_main1_day_4hour!A23,FIND("～",_main1_day_4hour!A23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A23,LEN(_main1_day_4hour!A23)-FIND("～",_main1_day_4hour!A23))))</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
+        <f>IF(_main1_day_4hour!B23="","",INT(LEFT(_main1_day_4hour!B23,FIND("～",_main1_day_4hour!B23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B23,LEN(_main1_day_4hour!B23)-FIND("～",_main1_day_4hour!B23))))</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -6094,7 +6097,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
+        <f>IF(_main1_day_4hour!D23="","",INT(LEFT(_main1_day_4hour!D23,FIND("～",_main1_day_4hour!D23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D23,LEN(_main1_day_4hour!D23)-FIND("～",_main1_day_4hour!D23))))</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -6109,12 +6112,12 @@
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="21" t="str">
-        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
-        <v/>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
+      <c r="J7" s="20" t="str">
+        <f>IF(_main1_day_4hour!H23="","",INT(LEFT(_main1_day_4hour!H23,FIND("～",_main1_day_4hour!H23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H23,LEN(_main1_day_4hour!H23)-FIND("～",_main1_day_4hour!H23))))</f>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>IF(_main1_day_4hour!I23="","",INT(LEFT(_main1_day_4hour!I23,FIND("～",_main1_day_4hour!I23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I23,LEN(_main1_day_4hour!I23)-FIND("～",_main1_day_4hour!I23))))</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -6131,36 +6134,36 @@
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f>IF(_main2_day_4hour!A22="","",_main2_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
+      <c r="F8" s="20" t="str">
+        <f>IF(_main1_day_4hour!D24="","",INT(_main1_day_4hour!D24))</f>
+        <v/>
+      </c>
+      <c r="G8" s="21" t="str">
         <f>IF(_main2_day_4hour!B22="","",_main2_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="22" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="I8" s="23" t="str">
+      <c r="I8" s="22" t="str">
         <f>IF(_main2_day_4hour!D22="","",_main2_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="J8" s="21" t="str">
-        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
-        <v/>
-      </c>
-      <c r="K8" s="21" t="str">
-        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
+      <c r="J8" s="20" t="str">
+        <f>IF(_main2_day_4hour!E22="","",INT(LEFT(_main2_day_4hour!E22,FIND("～",_main2_day_4hour!E22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E22,LEN(_main2_day_4hour!E22)-FIND("～",_main2_day_4hour!E22))))</f>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f>IF(_main2_day_4hour!F22="","",INT(LEFT(_main2_day_4hour!F22,FIND("～",_main2_day_4hour!F22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F22,LEN(_main2_day_4hour!F22)-FIND("～",_main2_day_4hour!F22))))</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -6173,39 +6176,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="20" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="20" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
@@ -6219,15 +6222,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -6237,18 +6240,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -6274,10 +6277,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -6288,30 +6291,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="28" t="str">
+      <c r="D13" s="27" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="28" t="str">
+      <c r="G13" s="27" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -6322,30 +6325,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="29" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="29" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="30" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -6353,33 +6356,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="21" t="str">
+      <c r="G15" s="20" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -6387,14 +6390,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -6430,17 +6433,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -6448,16 +6451,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -6465,16 +6468,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -6482,16 +6485,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -6499,16 +6502,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -6516,16 +6519,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -6533,16 +6536,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -6550,16 +6553,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -6567,24 +6570,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -6592,16 +6595,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -6609,18 +6612,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>

--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
   <si>
     <t>五号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -177,8 +177,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -205,12 +205,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -224,20 +224,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,38 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -304,15 +289,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +305,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -335,15 +327,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,16 +348,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,19 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,25 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +465,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,115 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,10 +737,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -763,41 +804,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,175 +834,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,6 +1048,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1056,7 +1060,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1078,10 +1082,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1092,14 +1096,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1133,7 +1137,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1161,10 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1178,14 +1179,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,7 +1263,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369199</xdr:colOff>
+      <xdr:colOff>1559699</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1184249</xdr:rowOff>
     </xdr:to>
@@ -1303,8 +1300,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197624</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673999</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1184249</xdr:rowOff>
     </xdr:to>
@@ -1323,7 +1320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11915775" y="4314825"/>
+          <a:off x="11458575" y="4314825"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1347,7 +1344,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1407160</xdr:colOff>
+      <xdr:colOff>1654810</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1174115</xdr:rowOff>
     </xdr:to>
@@ -1384,8 +1381,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140335</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1193165</xdr:rowOff>
     </xdr:to>
@@ -1404,7 +1401,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858625" y="4324350"/>
+          <a:off x="11268075" y="4324350"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1428,7 +1425,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369060</xdr:colOff>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1193165</xdr:rowOff>
     </xdr:to>
@@ -1447,7 +1444,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="4324350"/>
+          <a:off x="3962400" y="4324350"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1465,8 +1462,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1174115</xdr:rowOff>
     </xdr:to>
@@ -1485,7 +1482,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11830050" y="4305300"/>
+          <a:off x="11487150" y="4305300"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1509,7 +1506,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1369060</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1183640</xdr:rowOff>
     </xdr:to>
@@ -1546,8 +1543,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140335</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1183640</xdr:rowOff>
     </xdr:to>
@@ -1566,7 +1563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858625" y="4314825"/>
+          <a:off x="11468100" y="4314825"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1590,7 +1587,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1378585</xdr:colOff>
+      <xdr:colOff>1664335</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1183640</xdr:rowOff>
     </xdr:to>
@@ -1627,8 +1624,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197485</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1202690</xdr:rowOff>
     </xdr:to>
@@ -1647,7 +1644,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11915775" y="4333875"/>
+          <a:off x="11249025" y="4333875"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1671,7 +1668,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1464310</xdr:colOff>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1202690</xdr:rowOff>
     </xdr:to>
@@ -1690,7 +1687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="4333875"/>
+          <a:off x="3962400" y="4333875"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1708,8 +1705,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1673860</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>1183640</xdr:rowOff>
     </xdr:to>
@@ -1728,7 +1725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11868150" y="4314825"/>
+          <a:off x="11163300" y="4314825"/>
           <a:ext cx="1673860" cy="2231390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2001,21 +1998,21 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -2058,14 +2055,14 @@
         <v>3</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
-      </c>
-      <c r="K3" s="58"/>
+      <c r="J3" s="57" t="str">
+        <f>"03:00:00"</f>
+        <v>03:00:00</v>
+      </c>
+      <c r="K3" s="52"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="Y3" s="55"/>
@@ -2113,11 +2110,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -2156,11 +2153,11 @@
         <f>IF(_main1_day_4hour!G2="","",_main1_day_4hour!G2)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H2="","",_main1_day_4hour!H2)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I2="","",_main1_day_4hour!I2)</f>
         <v/>
       </c>
@@ -2175,11 +2172,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A3="","",INT(LEFT(_main1_day_4hour!A3,FIND("～",_main1_day_4hour!A3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A3,LEN(_main1_day_4hour!A3)-FIND("～",_main1_day_4hour!A3))))</f>
+        <f>IF(_main1_day_4hour!A3="","",_main1_day_4hour!A3)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B3="","",INT(LEFT(_main1_day_4hour!B3,FIND("～",_main1_day_4hour!B3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B3,LEN(_main1_day_4hour!B3)-FIND("～",_main1_day_4hour!B3))))</f>
+        <f>IF(_main1_day_4hour!B3="","",_main1_day_4hour!B3)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -2187,7 +2184,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D3="","",INT(LEFT(_main1_day_4hour!D3,FIND("～",_main1_day_4hour!D3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D3,LEN(_main1_day_4hour!D3)-FIND("～",_main1_day_4hour!D3))))</f>
+        <f>IF(_main1_day_4hour!D3="","",_main1_day_4hour!D3)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -2202,12 +2199,12 @@
         <f>IF(_main1_day_4hour!G3="","",_main1_day_4hour!G3)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H3="","",INT(LEFT(_main1_day_4hour!H3,FIND("～",_main1_day_4hour!H3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H3,LEN(_main1_day_4hour!H3)-FIND("～",_main1_day_4hour!H3))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I3="","",INT(LEFT(_main1_day_4hour!I3,FIND("～",_main1_day_4hour!I3)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I3,LEN(_main1_day_4hour!I3)-FIND("～",_main1_day_4hour!I3))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H3="","",_main1_day_4hour!H3)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I3="","",_main1_day_4hour!I3)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -2224,36 +2221,36 @@
         <f>IF(_main1_day_4hour!A4="","",_main1_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B4="","",_main1_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A2="","",_main2_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D4="","",INT(_main1_day_4hour!D4))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D4="","",_main1_day_4hour!D4)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B2="","",_main2_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C2="","",_main2_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D2="","",_main2_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E2="","",INT(LEFT(_main2_day_4hour!E2,FIND("～",_main2_day_4hour!E2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E2,LEN(_main2_day_4hour!E2)-FIND("～",_main2_day_4hour!E2))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F2="","",INT(LEFT(_main2_day_4hour!F2,FIND("～",_main2_day_4hour!F2)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F2,LEN(_main2_day_4hour!F2)-FIND("～",_main2_day_4hour!F2))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E2="","",_main2_day_4hour!E2)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F2="","",_main2_day_4hour!F2)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -2266,39 +2263,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A5="","",_main1_day_4hour!A5)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B5="","",_main1_day_4hour!B5)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C5="","",_main1_day_4hour!C5)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D5="","",_main1_day_4hour!D5)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E5="","",_main1_day_4hour!E5)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F5="","",_main1_day_4hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G5="","",_main1_day_4hour!G5)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H5="","",_main1_day_4hour!H5)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I5="","",_main1_day_4hour!I5)</f>
         <v/>
       </c>
@@ -2312,15 +2309,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -2330,18 +2327,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -2367,10 +2364,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -2381,30 +2378,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A2="","",_main3_day_4hour!A2)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B2="","",_main3_day_4hour!B2)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C2="","",_main3_day_4hour!C2)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D2="","",_main3_day_4hour!D2)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E2="","",_main3_day_4hour!E2)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -2415,30 +2412,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A3="","",_main3_day_4hour!A3)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B3="","",_main3_day_4hour!B3)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C3="","",_main3_day_4hour!C3)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D3="","",_main3_day_4hour!D3)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E3="","",_main3_day_4hour!E3)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -2446,33 +2443,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A4="","",_main3_day_4hour!A4)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B4="","",_main3_day_4hour!B4)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C4="","",_main3_day_4hour!C4)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D4="","",_main3_day_4hour!D4)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E4="","",_main3_day_4hour!E4)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -2480,14 +2477,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -2523,17 +2520,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -2541,16 +2538,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -2558,16 +2555,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -2575,16 +2572,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -2592,16 +2589,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -2609,16 +2606,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -2626,16 +2623,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -2643,16 +2640,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -2660,24 +2657,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -2685,16 +2682,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -2702,18 +2699,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -2725,7 +2722,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -2814,13 +2811,13 @@
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -2863,12 +2860,12 @@
         <v>3</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
+      <c r="J3" s="13" t="str">
+        <f>"07:00:00"</f>
+        <v>07:00:00</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -2918,11 +2915,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -2961,11 +2958,11 @@
         <f>IF(_main1_day_4hour!G6="","",_main1_day_4hour!G6)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H6="","",_main1_day_4hour!H6)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I6="","",_main1_day_4hour!I6)</f>
         <v/>
       </c>
@@ -2980,11 +2977,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A7="","",INT(LEFT(_main1_day_4hour!A7,FIND("～",_main1_day_4hour!A7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A7,LEN(_main1_day_4hour!A7)-FIND("～",_main1_day_4hour!A7))))</f>
+        <f>IF(_main1_day_4hour!A7="","",_main1_day_4hour!A7)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B7="","",INT(LEFT(_main1_day_4hour!B7,FIND("～",_main1_day_4hour!B7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B7,LEN(_main1_day_4hour!B7)-FIND("～",_main1_day_4hour!B7))))</f>
+        <f>IF(_main1_day_4hour!B7="","",_main1_day_4hour!B7)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -2992,7 +2989,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D7="","",INT(LEFT(_main1_day_4hour!D7,FIND("～",_main1_day_4hour!D7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D7,LEN(_main1_day_4hour!D7)-FIND("～",_main1_day_4hour!D7))))</f>
+        <f>IF(_main1_day_4hour!D7="","",_main1_day_4hour!D7)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -3007,12 +3004,12 @@
         <f>IF(_main1_day_4hour!G7="","",_main1_day_4hour!G7)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H7="","",INT(LEFT(_main1_day_4hour!H7,FIND("～",_main1_day_4hour!H7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H7,LEN(_main1_day_4hour!H7)-FIND("～",_main1_day_4hour!H7))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I7="","",INT(LEFT(_main1_day_4hour!I7,FIND("～",_main1_day_4hour!I7)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I7,LEN(_main1_day_4hour!I7)-FIND("～",_main1_day_4hour!I7))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H7="","",_main1_day_4hour!H7)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I7="","",_main1_day_4hour!I7)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -3029,36 +3026,36 @@
         <f>IF(_main1_day_4hour!A8="","",_main1_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B8="","",_main1_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A6="","",_main2_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D8="","",INT(_main1_day_4hour!D8))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D8="","",_main1_day_4hour!D8)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B6="","",_main2_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C6="","",_main2_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D6="","",_main2_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E6="","",INT(LEFT(_main2_day_4hour!E6,FIND("～",_main2_day_4hour!E6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E6,LEN(_main2_day_4hour!E6)-FIND("～",_main2_day_4hour!E6))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F6="","",INT(LEFT(_main2_day_4hour!F6,FIND("～",_main2_day_4hour!F6)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F6,LEN(_main2_day_4hour!F6)-FIND("～",_main2_day_4hour!F6))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E6="","",_main2_day_4hour!E6)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F6="","",_main2_day_4hour!F6)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -3071,39 +3068,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A9="","",_main1_day_4hour!A9)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B9="","",_main1_day_4hour!B9)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C9="","",_main1_day_4hour!C9)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D9="","",_main1_day_4hour!D9)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E9="","",_main1_day_4hour!E9)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F9="","",_main1_day_4hour!F9)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G9="","",_main1_day_4hour!G9)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H9="","",_main1_day_4hour!H9)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I9="","",_main1_day_4hour!I9)</f>
         <v/>
       </c>
@@ -3117,15 +3114,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -3135,18 +3132,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -3172,10 +3169,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -3186,30 +3183,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A6="","",_main3_day_4hour!A6)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B6="","",_main3_day_4hour!B6)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C6="","",_main3_day_4hour!C6)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D6="","",_main3_day_4hour!D6)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E6="","",_main3_day_4hour!E6)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -3220,30 +3217,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A7="","",_main3_day_4hour!A7)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B7="","",_main3_day_4hour!B7)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C7="","",_main3_day_4hour!C7)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D7="","",_main3_day_4hour!D7)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E7="","",_main3_day_4hour!E7)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -3251,33 +3248,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A8="","",_main3_day_4hour!A8)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B8="","",_main3_day_4hour!B8)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C8="","",_main3_day_4hour!C8)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D8="","",_main3_day_4hour!D8)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E8="","",_main3_day_4hour!E8)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -3285,14 +3282,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3328,17 +3325,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -3346,16 +3343,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -3363,16 +3360,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -3380,16 +3377,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -3397,16 +3394,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -3414,16 +3411,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -3431,16 +3428,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -3448,16 +3445,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -3465,24 +3462,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -3490,16 +3487,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -3507,18 +3504,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -3530,7 +3527,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -3579,16 +3576,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="69" spans="1:9">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3609,7 +3606,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B1:C1" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="B1:C1" name="区域1_1"/>
   </protectedRanges>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3622,20 +3619,20 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -3678,12 +3675,12 @@
         <v>43</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
+      <c r="J3" s="13" t="str">
+        <f>"11:00:00"</f>
+        <v>11:00:00</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -3733,11 +3730,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -3776,11 +3773,11 @@
         <f>IF(_main1_day_4hour!G10="","",_main1_day_4hour!G10)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H10="","",_main1_day_4hour!H10)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I10="","",_main1_day_4hour!I10)</f>
         <v/>
       </c>
@@ -3795,11 +3792,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A11="","",INT(LEFT(_main1_day_4hour!A11,FIND("～",_main1_day_4hour!A11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A11,LEN(_main1_day_4hour!A11)-FIND("～",_main1_day_4hour!A11))))</f>
+        <f>IF(_main1_day_4hour!A11="","",_main1_day_4hour!A11)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B11="","",INT(LEFT(_main1_day_4hour!B11,FIND("～",_main1_day_4hour!B11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B11,LEN(_main1_day_4hour!B11)-FIND("～",_main1_day_4hour!B11))))</f>
+        <f>IF(_main1_day_4hour!B11="","",_main1_day_4hour!B11)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -3807,7 +3804,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D11="","",INT(LEFT(_main1_day_4hour!D11,FIND("～",_main1_day_4hour!D11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D11,LEN(_main1_day_4hour!D11)-FIND("～",_main1_day_4hour!D11))))</f>
+        <f>IF(_main1_day_4hour!D11="","",_main1_day_4hour!D11)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -3822,12 +3819,12 @@
         <f>IF(_main1_day_4hour!G11="","",_main1_day_4hour!G11)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H11="","",INT(LEFT(_main1_day_4hour!H11,FIND("～",_main1_day_4hour!H11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H11,LEN(_main1_day_4hour!H11)-FIND("～",_main1_day_4hour!H11))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I11="","",INT(LEFT(_main1_day_4hour!I11,FIND("～",_main1_day_4hour!I11)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I11,LEN(_main1_day_4hour!I11)-FIND("～",_main1_day_4hour!I11))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H11="","",_main1_day_4hour!H11)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I11="","",_main1_day_4hour!I11)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -3844,36 +3841,36 @@
         <f>IF(_main1_day_4hour!A12="","",_main1_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B12="","",_main1_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A10="","",_main2_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D12="","",INT(_main1_day_4hour!D12))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D12="","",_main1_day_4hour!D12)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B10="","",_main2_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C10="","",_main2_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D10="","",_main2_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E10="","",INT(LEFT(_main2_day_4hour!E10,FIND("～",_main2_day_4hour!E10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E10,LEN(_main2_day_4hour!E10)-FIND("～",_main2_day_4hour!E10))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F10="","",INT(LEFT(_main2_day_4hour!F10,FIND("～",_main2_day_4hour!F10)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F10,LEN(_main2_day_4hour!F10)-FIND("～",_main2_day_4hour!F10))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E10="","",_main2_day_4hour!E10)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F10="","",_main2_day_4hour!F10)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -3886,39 +3883,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A13="","",_main1_day_4hour!A13)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B13="","",_main1_day_4hour!B13)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C13="","",_main1_day_4hour!C13)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D13="","",_main1_day_4hour!D13)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E13="","",_main1_day_4hour!E13)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F13="","",_main1_day_4hour!F13)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G13="","",_main1_day_4hour!G13)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H13="","",_main1_day_4hour!H13)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I13="","",_main1_day_4hour!I13)</f>
         <v/>
       </c>
@@ -3932,15 +3929,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -3950,18 +3947,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -3987,10 +3984,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -4001,30 +3998,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A10="","",_main3_day_4hour!A10)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B10="","",_main3_day_4hour!B10)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C10="","",_main3_day_4hour!C10)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D10="","",_main3_day_4hour!D10)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E10="","",_main3_day_4hour!E10)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -4035,30 +4032,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A11="","",_main3_day_4hour!A11)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B11="","",_main3_day_4hour!B11)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C11="","",_main3_day_4hour!C11)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D11="","",_main3_day_4hour!D11)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E11="","",_main3_day_4hour!E11)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -4066,33 +4063,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A12="","",_main3_day_4hour!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B12="","",_main3_day_4hour!B12)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C12="","",_main3_day_4hour!C12)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D12="","",_main3_day_4hour!D12)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E12="","",_main3_day_4hour!E12)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -4100,14 +4097,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4143,17 +4140,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -4161,16 +4158,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -4178,16 +4175,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -4195,16 +4192,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -4212,16 +4209,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -4229,16 +4226,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -4246,16 +4243,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -4263,16 +4260,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -4280,24 +4277,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -4305,16 +4302,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -4322,18 +4319,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -4345,7 +4342,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -4386,20 +4383,20 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -4442,12 +4439,12 @@
         <v>43</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
+      <c r="J3" s="13" t="str">
+        <f>"15:00:00"</f>
+        <v>15:00:00</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -4497,11 +4494,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -4540,11 +4537,11 @@
         <f>IF(_main1_day_4hour!G14="","",_main1_day_4hour!G14)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H14="","",_main1_day_4hour!H14)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I14="","",_main1_day_4hour!I14)</f>
         <v/>
       </c>
@@ -4559,11 +4556,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A15="","",INT(LEFT(_main1_day_4hour!A15,FIND("～",_main1_day_4hour!A15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A15,LEN(_main1_day_4hour!A15)-FIND("～",_main1_day_4hour!A15))))</f>
+        <f>IF(_main1_day_4hour!A15="","",_main1_day_4hour!A15)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B15="","",INT(LEFT(_main1_day_4hour!B15,FIND("～",_main1_day_4hour!B15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B15,LEN(_main1_day_4hour!B15)-FIND("～",_main1_day_4hour!B15))))</f>
+        <f>IF(_main1_day_4hour!B15="","",_main1_day_4hour!B15)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -4571,7 +4568,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D15="","",INT(LEFT(_main1_day_4hour!D15,FIND("～",_main1_day_4hour!D15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D15,LEN(_main1_day_4hour!D15)-FIND("～",_main1_day_4hour!D15))))</f>
+        <f>IF(_main1_day_4hour!D15="","",_main1_day_4hour!D15)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -4586,12 +4583,12 @@
         <f>IF(_main1_day_4hour!G15="","",_main1_day_4hour!G15)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H15="","",INT(LEFT(_main1_day_4hour!H15,FIND("～",_main1_day_4hour!H15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H15,LEN(_main1_day_4hour!H15)-FIND("～",_main1_day_4hour!H15))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I15="","",INT(LEFT(_main1_day_4hour!I15,FIND("～",_main1_day_4hour!I15)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I15,LEN(_main1_day_4hour!I15)-FIND("～",_main1_day_4hour!I15))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H15="","",_main1_day_4hour!H15)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I15="","",_main1_day_4hour!I15)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -4608,36 +4605,36 @@
         <f>IF(_main1_day_4hour!A16="","",_main1_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B16="","",_main1_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A14="","",_main2_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D16="","",INT(_main1_day_4hour!D16))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D16="","",_main1_day_4hour!D16)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B14="","",_main2_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C14="","",_main2_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D14="","",_main2_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E14="","",INT(LEFT(_main2_day_4hour!E14,FIND("～",_main2_day_4hour!E14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E14,LEN(_main2_day_4hour!E14)-FIND("～",_main2_day_4hour!E14))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F14="","",INT(LEFT(_main2_day_4hour!F14,FIND("～",_main2_day_4hour!F14)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F14,LEN(_main2_day_4hour!F14)-FIND("～",_main2_day_4hour!F14))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E14="","",_main2_day_4hour!E14)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F14="","",_main2_day_4hour!F14)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -4650,39 +4647,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A17="","",_main1_day_4hour!A17)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B17="","",_main1_day_4hour!B17)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C17="","",_main1_day_4hour!C17)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D17="","",_main1_day_4hour!D17)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E17="","",_main1_day_4hour!E17)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F17="","",_main1_day_4hour!F17)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G17="","",_main1_day_4hour!G17)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H17="","",_main1_day_4hour!H17)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I17="","",_main1_day_4hour!I17)</f>
         <v/>
       </c>
@@ -4696,15 +4693,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -4714,18 +4711,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -4751,10 +4748,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -4765,30 +4762,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A14="","",_main3_day_4hour!A14)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B14="","",_main3_day_4hour!B14)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C14="","",_main3_day_4hour!C14)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D14="","",_main3_day_4hour!D14)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E14="","",_main3_day_4hour!E14)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -4799,30 +4796,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A15="","",_main3_day_4hour!A15)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B15="","",_main3_day_4hour!B15)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C15="","",_main3_day_4hour!C15)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D15="","",_main3_day_4hour!D15)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E15="","",_main3_day_4hour!E15)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -4830,33 +4827,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A16="","",_main3_day_4hour!A16)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B16="","",_main3_day_4hour!B16)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C16="","",_main3_day_4hour!C16)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D16="","",_main3_day_4hour!D16)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E16="","",_main3_day_4hour!E16)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -4864,14 +4861,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4907,17 +4904,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -4925,16 +4922,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -4942,16 +4939,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -4959,16 +4956,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -4976,16 +4973,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -4993,16 +4990,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -5010,16 +5007,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -5027,16 +5024,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -5044,24 +5041,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -5069,16 +5066,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -5086,18 +5083,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -5109,7 +5106,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -5149,20 +5146,20 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
@@ -5205,12 +5202,12 @@
         <v>44</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
+      <c r="J3" s="13" t="str">
+        <f>"19:00:00"</f>
+        <v>19:00:00</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -5260,11 +5257,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -5303,11 +5300,11 @@
         <f>IF(_main1_day_4hour!G18="","",_main1_day_4hour!G18)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H18="","",_main1_day_4hour!H18)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I18="","",_main1_day_4hour!I18)</f>
         <v/>
       </c>
@@ -5322,11 +5319,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A19="","",INT(LEFT(_main1_day_4hour!A19,FIND("～",_main1_day_4hour!A19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A19,LEN(_main1_day_4hour!A19)-FIND("～",_main1_day_4hour!A19))))</f>
+        <f>IF(_main1_day_4hour!A19="","",_main1_day_4hour!A19)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B19="","",INT(LEFT(_main1_day_4hour!B19,FIND("～",_main1_day_4hour!B19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B19,LEN(_main1_day_4hour!B19)-FIND("～",_main1_day_4hour!B19))))</f>
+        <f>IF(_main1_day_4hour!B19="","",_main1_day_4hour!B19)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -5334,7 +5331,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D19="","",INT(LEFT(_main1_day_4hour!D19,FIND("～",_main1_day_4hour!D19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D19,LEN(_main1_day_4hour!D19)-FIND("～",_main1_day_4hour!D19))))</f>
+        <f>IF(_main1_day_4hour!D19="","",_main1_day_4hour!D19)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -5349,12 +5346,12 @@
         <f>IF(_main1_day_4hour!G19="","",_main1_day_4hour!G19)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H19="","",INT(LEFT(_main1_day_4hour!H19,FIND("～",_main1_day_4hour!H19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H19,LEN(_main1_day_4hour!H19)-FIND("～",_main1_day_4hour!H19))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I19="","",INT(LEFT(_main1_day_4hour!I19,FIND("～",_main1_day_4hour!I19)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I19,LEN(_main1_day_4hour!I19)-FIND("～",_main1_day_4hour!I19))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H19="","",_main1_day_4hour!H19)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I19="","",_main1_day_4hour!I19)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -5371,36 +5368,36 @@
         <f>IF(_main1_day_4hour!A20="","",_main1_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B20="","",_main1_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A18="","",_main2_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D20="","",INT(_main1_day_4hour!D20))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D20="","",_main1_day_4hour!D20)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B18="","",_main2_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C18="","",_main2_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D18="","",_main2_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E18="","",INT(LEFT(_main2_day_4hour!E18,FIND("～",_main2_day_4hour!E18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E18,LEN(_main2_day_4hour!E18)-FIND("～",_main2_day_4hour!E18))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F18="","",INT(LEFT(_main2_day_4hour!F18,FIND("～",_main2_day_4hour!F18)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F18,LEN(_main2_day_4hour!F18)-FIND("～",_main2_day_4hour!F18))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E18="","",_main2_day_4hour!E18)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F18="","",_main2_day_4hour!F18)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -5413,39 +5410,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A21="","",_main1_day_4hour!A21)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B21="","",_main1_day_4hour!B21)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C21="","",_main1_day_4hour!C21)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D21="","",_main1_day_4hour!D21)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E21="","",_main1_day_4hour!E21)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F21="","",_main1_day_4hour!F21)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G21="","",_main1_day_4hour!G21)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H21="","",_main1_day_4hour!H21)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I21="","",_main1_day_4hour!I21)</f>
         <v/>
       </c>
@@ -5459,15 +5456,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -5477,18 +5474,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -5514,10 +5511,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -5528,30 +5525,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A18="","",_main3_day_4hour!A18)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B18="","",_main3_day_4hour!B18)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C18="","",_main3_day_4hour!C18)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D18="","",_main3_day_4hour!D18)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E18="","",_main3_day_4hour!E18)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -5562,30 +5559,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A19="","",_main3_day_4hour!A19)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B19="","",_main3_day_4hour!B19)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C19="","",_main3_day_4hour!C19)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D19="","",_main3_day_4hour!D19)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E19="","",_main3_day_4hour!E19)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -5593,33 +5590,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A20="","",_main3_day_4hour!A20)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B20="","",_main3_day_4hour!B20)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C20="","",_main3_day_4hour!C20)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D20="","",_main3_day_4hour!D20)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E20="","",_main3_day_4hour!E20)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -5627,14 +5624,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -5670,17 +5667,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -5688,16 +5685,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -5705,16 +5702,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -5722,16 +5719,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -5739,16 +5736,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -5756,16 +5753,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -5773,16 +5770,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -5790,16 +5787,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -5807,24 +5804,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -5832,16 +5829,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -5849,18 +5846,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -5872,7 +5869,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -5911,23 +5908,22 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="6" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="19.125" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -5968,12 +5964,12 @@
         <v>44</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="51" t="str">
-        <f>IF(_metadata!B1="","",_metadata!B1)</f>
-        <v/>
+      <c r="J3" s="13" t="str">
+        <f>"23:00:00"</f>
+        <v>23:00:00</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="6"/>
@@ -6023,11 +6019,11 @@
       <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="Y5" s="55"/>
@@ -6066,11 +6062,11 @@
         <f>IF(_main1_day_4hour!G22="","",_main1_day_4hour!G22)</f>
         <v/>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="32" t="str">
         <f>IF(_main1_day_4hour!H22="","",_main1_day_4hour!H22)</f>
         <v/>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="32" t="str">
         <f>IF(_main1_day_4hour!I22="","",_main1_day_4hour!I22)</f>
         <v/>
       </c>
@@ -6085,11 +6081,11 @@
         <v>15</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_main1_day_4hour!A23="","",INT(LEFT(_main1_day_4hour!A23,FIND("～",_main1_day_4hour!A23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!A23,LEN(_main1_day_4hour!A23)-FIND("～",_main1_day_4hour!A23))))</f>
+        <f>IF(_main1_day_4hour!A23="","",_main1_day_4hour!A23)</f>
         <v/>
       </c>
       <c r="D7" s="16" t="str">
-        <f>IF(_main1_day_4hour!B23="","",INT(LEFT(_main1_day_4hour!B23,FIND("～",_main1_day_4hour!B23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!B23,LEN(_main1_day_4hour!B23)-FIND("～",_main1_day_4hour!B23))))</f>
+        <f>IF(_main1_day_4hour!B23="","",_main1_day_4hour!B23)</f>
         <v/>
       </c>
       <c r="E7" s="16" t="str">
@@ -6097,7 +6093,7 @@
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IF(_main1_day_4hour!D23="","",INT(LEFT(_main1_day_4hour!D23,FIND("～",_main1_day_4hour!D23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!D23,LEN(_main1_day_4hour!D23)-FIND("～",_main1_day_4hour!D23))))</f>
+        <f>IF(_main1_day_4hour!D23="","",_main1_day_4hour!D23)</f>
         <v/>
       </c>
       <c r="G7" s="17" t="str">
@@ -6112,12 +6108,12 @@
         <f>IF(_main1_day_4hour!G23="","",_main1_day_4hour!G23)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
-        <f>IF(_main1_day_4hour!H23="","",INT(LEFT(_main1_day_4hour!H23,FIND("～",_main1_day_4hour!H23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!H23,LEN(_main1_day_4hour!H23)-FIND("～",_main1_day_4hour!H23))))</f>
-        <v/>
-      </c>
-      <c r="K7" s="20" t="str">
-        <f>IF(_main1_day_4hour!I23="","",INT(LEFT(_main1_day_4hour!I23,FIND("～",_main1_day_4hour!I23)-1))&amp;"～"&amp;INT(RIGHT(_main1_day_4hour!I23,LEN(_main1_day_4hour!I23)-FIND("～",_main1_day_4hour!I23))))</f>
+      <c r="J7" s="21" t="str">
+        <f>IF(_main1_day_4hour!H23="","",_main1_day_4hour!H23)</f>
+        <v/>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>IF(_main1_day_4hour!I23="","",_main1_day_4hour!I23)</f>
         <v/>
       </c>
       <c r="L7" s="6"/>
@@ -6134,36 +6130,36 @@
         <f>IF(_main1_day_4hour!A24="","",_main1_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="20" t="str">
         <f>IF(_main1_day_4hour!B24="","",_main1_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(_main2_day_4hour!A22="","",_main2_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>IF(_main1_day_4hour!D24="","",INT(_main1_day_4hour!D24))</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="F8" s="21" t="str">
+        <f>IF(_main1_day_4hour!D24="","",_main1_day_4hour!D24)</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
         <f>IF(_main2_day_4hour!B22="","",_main2_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="23" t="str">
         <f>IF(_main2_day_4hour!C22="","",_main2_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I8" s="23" t="str">
         <f>IF(_main2_day_4hour!D22="","",_main2_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
-        <f>IF(_main2_day_4hour!E22="","",INT(LEFT(_main2_day_4hour!E22,FIND("～",_main2_day_4hour!E22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!E22,LEN(_main2_day_4hour!E22)-FIND("～",_main2_day_4hour!E22))))</f>
-        <v/>
-      </c>
-      <c r="K8" s="20" t="str">
-        <f>IF(_main2_day_4hour!F22="","",INT(LEFT(_main2_day_4hour!F22,FIND("～",_main2_day_4hour!F22)-1))&amp;"～"&amp;INT(RIGHT(_main2_day_4hour!F22,LEN(_main2_day_4hour!F22)-FIND("～",_main2_day_4hour!F22))))</f>
+      <c r="J8" s="21" t="str">
+        <f>IF(_main2_day_4hour!E22="","",_main2_day_4hour!E22)</f>
+        <v/>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f>IF(_main2_day_4hour!F22="","",_main2_day_4hour!F22)</f>
         <v/>
       </c>
       <c r="L8" s="6"/>
@@ -6176,39 +6172,39 @@
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_main1_day_4hour!A25="","",_main1_day_4hour!A25)</f>
         <v/>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="20" t="str">
         <f>IF(_main1_day_4hour!B25="","",_main1_day_4hour!B25)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_main1_day_4hour!C25="","",_main1_day_4hour!C25)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" s="21" t="str">
         <f>IF(_main1_day_4hour!D25="","",_main1_day_4hour!D25)</f>
         <v/>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_main1_day_4hour!E25="","",_main1_day_4hour!E25)</f>
         <v/>
       </c>
-      <c r="H9" s="19" t="str">
+      <c r="H9" s="20" t="str">
         <f>IF(_main1_day_4hour!F25="","",_main1_day_4hour!F25)</f>
         <v/>
       </c>
-      <c r="I9" s="19" t="str">
+      <c r="I9" s="20" t="str">
         <f>IF(_main1_day_4hour!G25="","",_main1_day_4hour!G25)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_main1_day_4hour!H25="","",_main1_day_4hour!H25)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_main1_day_4hour!I25="","",_main1_day_4hour!I25)</f>
         <v/>
       </c>
@@ -6222,15 +6218,15 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="6"/>
@@ -6240,18 +6236,18 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="Y11" s="55"/>
@@ -6277,10 +6273,10 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="Y12" s="55"/>
@@ -6291,30 +6287,30 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="28" t="str">
         <f>IF(_main3_day_4hour!A22="","",_main3_day_4hour!A22)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="28" t="str">
         <f>IF(_main3_day_4hour!B22="","",_main3_day_4hour!B22)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="28" t="str">
         <f>IF(_main3_day_4hour!C22="","",_main3_day_4hour!C22)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="28" t="str">
         <f>IF(_main3_day_4hour!D22="","",_main3_day_4hour!D22)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="28" t="str">
         <f>IF(_main3_day_4hour!E22="","",_main3_day_4hour!E22)</f>
         <v/>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="Y13" s="55"/>
@@ -6325,30 +6321,30 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="30" t="str">
         <f>IF(_main3_day_4hour!A23="","",_main3_day_4hour!A23)</f>
         <v/>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="30" t="str">
         <f>IF(_main3_day_4hour!B23="","",_main3_day_4hour!B23)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="30" t="str">
         <f>IF(_main3_day_4hour!C23="","",_main3_day_4hour!C23)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="31" t="str">
         <f>IF(_main3_day_4hour!D23="","",_main3_day_4hour!D23)</f>
         <v/>
       </c>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="30" t="str">
         <f>IF(_main3_day_4hour!E23="","",_main3_day_4hour!E23)</f>
         <v/>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="Y14" s="55"/>
@@ -6356,33 +6352,33 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A15" s="6"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="20" t="str">
         <f>IF(_main3_day_4hour!A24="","",_main3_day_4hour!A24)</f>
         <v/>
       </c>
-      <c r="D15" s="19" t="str">
+      <c r="D15" s="20" t="str">
         <f>IF(_main3_day_4hour!B24="","",_main3_day_4hour!B24)</f>
         <v/>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="20" t="str">
         <f>IF(_main3_day_4hour!C24="","",_main3_day_4hour!C24)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_main3_day_4hour!D24="","",_main3_day_4hour!D24)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_main3_day_4hour!E24="","",_main3_day_4hour!E24)</f>
         <v/>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="Y15" s="55"/>
@@ -6390,14 +6386,14 @@
     </row>
     <row r="16" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A16" s="6"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -6433,17 +6429,17 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="31" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="Y18" s="55"/>
@@ -6451,16 +6447,16 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:26">
       <c r="A19" s="6"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="Y19" s="55"/>
@@ -6468,16 +6464,16 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:26">
       <c r="A20" s="6"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="Y20" s="55"/>
@@ -6485,16 +6481,16 @@
     </row>
     <row r="21" s="5" customFormat="1" spans="1:26">
       <c r="A21" s="6"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="Y21" s="55"/>
@@ -6502,16 +6498,16 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:26">
       <c r="A22" s="6"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="Y22" s="55"/>
@@ -6519,16 +6515,16 @@
     </row>
     <row r="23" s="5" customFormat="1" spans="1:26">
       <c r="A23" s="6"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Y23" s="55"/>
@@ -6536,16 +6532,16 @@
     </row>
     <row r="24" s="5" customFormat="1" spans="1:26">
       <c r="A24" s="6"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="Y24" s="55"/>
@@ -6553,16 +6549,16 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="98.1" customHeight="1" spans="1:26">
       <c r="A25" s="6"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="Y25" s="55"/>
@@ -6570,24 +6566,24 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="Y26" s="55"/>
@@ -6595,16 +6591,16 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:26">
       <c r="A27" s="6"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="Y27" s="55"/>
@@ -6612,18 +6608,18 @@
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="Y28" s="55"/>
@@ -6635,7 +6631,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="D5:E5" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="D5:E5" name="区域1_1"/>
   </protectedRanges>
   <mergeCells count="16">
     <mergeCell ref="B2:K2"/>
@@ -6702,7 +6698,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A1" name="区域1_1" securityDescriptor=""/>
+    <protectedRange sqref="A1" name="区域1_1"/>
   </protectedRanges>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="45">
   <si>
     <t>五号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -85,9 +85,6 @@
     <t>异常说明</t>
   </si>
   <si>
-    <t>上料量偏低，氮氧化物高，后续逐步上调。</t>
-  </si>
-  <si>
     <t>二、烧结矿质量</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
   </si>
   <si>
     <t>实物质量评价</t>
-  </si>
-  <si>
-    <t>正常/偏碎/偏黄/粒度不均匀</t>
-  </si>
-  <si>
-    <t>正常</t>
   </si>
   <si>
     <t>备注：每间隔4小时发布一次（3、7、11、15、19、23时）。发布在微信烧结-调度联络群，由调度转发厂信息平台。</t>
@@ -177,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -224,6 +215,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,14 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,28 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,51 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,18 +340,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -405,7 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,61 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,19 +510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,13 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,37 +552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +728,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,15 +774,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,35 +795,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,7 +806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,148 +830,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,492 +1241,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1559699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1184249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673999</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1184249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458575" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1654810</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1174115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="4305300"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1193165</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11268075" y="4324350"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1193165</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="4324350"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1174115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487150" y="4305300"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1664335</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1183640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1183640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11468100" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1664335</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1183640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010025" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1202690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11249025" y="4333875"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1202690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信图片_20180914065748.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="4333875"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1673860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1183640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信图片_20180914065751.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11163300" y="4314825"/>
-          <a:ext cx="1673860" cy="2231390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1998,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2309,9 +1814,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -2328,7 +1831,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2350,19 +1853,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -2497,7 +2000,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2505,7 +2008,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -2518,14 +2021,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -2658,20 +2161,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -2700,7 +2199,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -2753,7 +2252,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2770,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -2804,7 +2302,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3114,9 +2612,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -3133,7 +2629,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3155,19 +2651,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -3302,7 +2798,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -3310,7 +2806,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -3323,14 +2819,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -3463,20 +2959,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -3505,7 +2997,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -3557,7 +3049,6 @@
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3577,31 +3068,31 @@
   <sheetData>
     <row r="1" ht="69" spans="1:9">
       <c r="A1" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3110,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3672,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="51" t="s">
@@ -3929,9 +3420,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -3948,7 +3437,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3970,19 +3459,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -4117,7 +3606,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -4125,7 +3614,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4138,14 +3627,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -4278,20 +3767,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -4320,7 +3805,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -4373,7 +3858,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4383,7 +3867,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4436,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="51" t="s">
@@ -4693,9 +4177,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -4712,7 +4194,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -4734,19 +4216,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -4881,7 +4363,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -4889,7 +4371,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4902,14 +4384,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -5042,20 +4524,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -5084,7 +4562,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -5136,7 +4614,6 @@
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5146,7 +4623,7 @@
   <dimension ref="A2:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5199,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="51" t="s">
@@ -5456,9 +4933,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -5475,7 +4950,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -5497,19 +4972,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -5644,7 +5119,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -5652,7 +5127,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -5665,14 +5140,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -5805,20 +5280,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -5847,7 +5318,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -5899,7 +5370,6 @@
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5908,8 +5378,8 @@
   <sheetPr/>
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5961,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="51" t="s">
@@ -6218,9 +5688,7 @@
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -6237,7 +5705,7 @@
     <row r="11" s="5" customFormat="1" ht="24" customHeight="1" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -6259,19 +5727,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -6406,7 +5874,7 @@
     <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -6414,7 +5882,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -6427,14 +5895,14 @@
     <row r="18" s="5" customFormat="1" ht="17.25" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -6567,20 +6035,16 @@
     <row r="26" s="5" customFormat="1" spans="1:26">
       <c r="A26" s="6"/>
       <c r="B26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -6609,7 +6073,7 @@
     <row r="28" s="5" customFormat="1" ht="16.5" spans="1:26">
       <c r="A28" s="6"/>
       <c r="B28" s="50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -6661,7 +6125,6 @@
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6678,22 +6141,22 @@
   <sheetData>
     <row r="1" ht="69" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6721,19 +6184,19 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
+++ b/excel/finished/烧结/4小时发布-五烧主要工艺参数及实物质量情况日报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>五号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -139,19 +139,10 @@
     <t>ST5_L1R_SIN_BtpTeN_4h_avg</t>
   </si>
   <si>
-    <t>ST5_MESR_SIN_SinterR_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterTFe_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterFeO_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterMgAlRatio_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterRDIH3p15_1m_cur</t>
+    <t>Mg/Al</t>
+  </si>
+  <si>
+    <t>RDI+3.15</t>
   </si>
   <si>
     <t>version</t>
@@ -162,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -204,6 +195,103 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -214,10 +302,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,134 +347,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -384,175 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,23 +710,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,15 +742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,26 +763,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,153 +789,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2297,26 +2288,26 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="71.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>5</v>
